--- a/inst/extdata/toyFiles/FROC/frocSpC.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocSpC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE6AB32-001C-DD4F-A12C-E309F7F8AB37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E0B7E7-20ED-8641-90B5-B1C374B4EBB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18740" yWindow="1140" windowWidth="10000" windowHeight="10160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="37">
   <si>
     <t>CaseID</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>split-plot-c</t>
+  </si>
+  <si>
+    <t>(0)</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
   </si>
 </sst>
 </file>
@@ -236,17 +245,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -643,6 +647,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -661,16 +666,16 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <f ca="1">RAND()-0.5</f>
-        <v>-0.35385921951350541</v>
+        <v>0.34076413284010987</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
@@ -682,20 +687,20 @@
       <c r="E2" s="1">
         <v>5.28</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J9" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.52</v>
-      </c>
-      <c r="M2">
+        <v>5.16</v>
+      </c>
+      <c r="M2" s="2">
         <f t="shared" ref="M2:M34" ca="1" si="1">RAND()-0.5</f>
-        <v>0.22015712681752309</v>
+        <v>0.42179871719768514</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -707,20 +712,20 @@
       <c r="E3" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.82</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1256523475181871</v>
+        <v>4.41</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35867132822341119</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
@@ -732,20 +737,20 @@
       <c r="E4" s="1">
         <v>3.01</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.21</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.28067210264848486</v>
+        <v>2.82</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.38324525897376049</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
@@ -757,20 +762,20 @@
       <c r="E5" s="1">
         <v>5.98</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.73</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20551496184047513</v>
+        <v>5.79</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46229011308619639</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -782,16 +787,16 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.03</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
@@ -803,20 +808,20 @@
       <c r="E7" s="1">
         <v>5.25</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.08</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.24977369048878428</v>
+        <v>5.3</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.14079021838526462</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
@@ -828,20 +833,20 @@
       <c r="E8" s="1">
         <v>4.26</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.07</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.45724921819288189</v>
+        <v>4.46</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.098588686339641E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -853,20 +858,20 @@
       <c r="E9" s="1">
         <v>5.14</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.13</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.49023832193544037</v>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36532181529663688</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -878,20 +883,20 @@
       <c r="E10" s="1">
         <v>3.31</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f t="shared" ref="J10:J33" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E10, 2)</f>
-        <v>3.31</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.13052870533321337</v>
+        <v>3.12</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.23618667541028038</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1">
@@ -903,20 +908,20 @@
       <c r="E11" s="1">
         <v>4.92</v>
       </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.78</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22191814166301493</v>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.68</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.3101699094944128E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1">
@@ -928,20 +933,20 @@
       <c r="E12" s="1">
         <v>5.1100000000000003</v>
       </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.04</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12845614609247669</v>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23679070443123695</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1">
@@ -953,20 +958,20 @@
       <c r="E13" s="1">
         <v>4.63</v>
       </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.87</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.21682816460549958</v>
+      <c r="J13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.68</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.39985163397889933</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1">
@@ -978,20 +983,20 @@
       <c r="E14" s="1">
         <v>4.95</v>
       </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.21653742586920832</v>
+      <c r="J14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.47605844750439463</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1">
@@ -1003,20 +1008,20 @@
       <c r="E15" s="1">
         <v>5.3</v>
       </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.09</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.40653616349133459</v>
+      <c r="J15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.19</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.48454632962065891</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1">
@@ -1028,20 +1033,20 @@
       <c r="E16" s="1">
         <v>4.66</v>
       </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.82</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.12055333754695607</v>
+      <c r="J16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43484356692153536</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1">
@@ -1053,20 +1058,20 @@
       <c r="E17" s="1">
         <v>4.03</v>
       </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.88</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.24043817370087994</v>
+      <c r="J17" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.04</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45976670913363249</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1">
@@ -1078,20 +1083,20 @@
       <c r="E18" s="1">
         <v>5.22</v>
       </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.32</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.4518618182040558</v>
+      <c r="J18" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.15</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.28516799779908386</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
@@ -1103,20 +1108,20 @@
       <c r="E19" s="1">
         <v>4.9400000000000004</v>
       </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20966182329960026</v>
+      <c r="J19" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.070259353868912E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1">
@@ -1128,20 +1133,20 @@
       <c r="E20" s="1">
         <v>5.27</v>
       </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.45</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.16683323399591221</v>
+      <c r="J20" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.34</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.24011131768318494</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1">
@@ -1153,20 +1158,20 @@
       <c r="E21" s="1">
         <v>5.2</v>
       </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12904436278566711</v>
+      <c r="J21" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.13</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.165643249336069</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1">
@@ -1178,20 +1183,20 @@
       <c r="E22" s="1">
         <v>3.27</v>
       </c>
-      <c r="J22">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.23</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.14502044622632315</v>
+      <c r="J22" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.26</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.3169404945524383E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1">
@@ -1203,20 +1208,20 @@
       <c r="E23" s="1">
         <v>4.6100000000000003</v>
       </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7780919234629478E-2</v>
+      <c r="J23" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.57</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31838416157826366</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1">
@@ -1228,20 +1233,20 @@
       <c r="E24" s="1">
         <v>5.18</v>
       </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.19</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.13084678607310296</v>
+      <c r="J24" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.31</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22250320131717849</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1">
@@ -1253,20 +1258,20 @@
       <c r="E25" s="1">
         <v>4.72</v>
       </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.58</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.38771538505723668</v>
+      <c r="J25" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.53</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7185710887119656E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1">
@@ -1278,20 +1283,20 @@
       <c r="E26" s="1">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.43177121608645019</v>
+      <c r="J26" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.91</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.22765724785624941</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1">
@@ -1303,20 +1308,20 @@
       <c r="E27" s="1">
         <v>3.19</v>
       </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.95</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.8242785601476359E-2</v>
+      <c r="J27" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.26</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6826097144701864E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1">
@@ -1328,20 +1333,20 @@
       <c r="E28" s="1">
         <v>5.2</v>
       </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.35</v>
-      </c>
-      <c r="M28">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39540894108691949</v>
+      <c r="J28" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.22</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43357325630930021</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1">
@@ -1353,20 +1358,20 @@
       <c r="E29" s="1">
         <v>5.39</v>
       </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.46</v>
-      </c>
-      <c r="M29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.4802361749262446</v>
+      <c r="J29" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.48</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.21728873371707402</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1">
@@ -1378,20 +1383,20 @@
       <c r="E30" s="1">
         <v>5.01</v>
       </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.31892656211179016</v>
+      <c r="J30" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.88</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.929748503867637E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1">
@@ -1403,20 +1408,20 @@
       <c r="E31" s="1">
         <v>4.87</v>
       </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.92</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.28052205753719228</v>
+      <c r="J31" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.04</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43843800096394359</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1">
@@ -1428,13 +1433,13 @@
       <c r="E32" s="1">
         <v>1.94</v>
       </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.73</v>
-      </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27751595169581966</v>
+      <c r="J32" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.87</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14452458253015332</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1453,25 +1458,25 @@
       <c r="E33" s="1">
         <v>4.78</v>
       </c>
-      <c r="J33">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.91</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47816305157523087</v>
+      <c r="J33" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.24295717114820747</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M34">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.41674593297899876</v>
+      <c r="M34" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.41855868626844261</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M36">
+      <c r="M36" s="2">
         <f ca="1">AVERAGE(M1:M34)</f>
-        <v>-0.12129282268228574</v>
+        <v>3.9442301652386623E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1499,6 +1504,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1528,9 +1534,9 @@
       <c r="D2" s="1">
         <v>1.02</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <f ca="1">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>0.89</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1546,9 +1552,9 @@
       <c r="D3" s="1">
         <v>2.17</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J22" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D3, 2)</f>
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1564,9 +1570,9 @@
       <c r="D4" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.08</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1582,9 +1588,9 @@
       <c r="D5" s="1">
         <v>1.9</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1600,9 +1606,9 @@
       <c r="D6" s="1">
         <v>2.21</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1618,7 +1624,7 @@
       <c r="D7" s="1">
         <v>3.1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>2.93</v>
       </c>
@@ -1636,9 +1642,9 @@
       <c r="D8" s="1">
         <v>2.21</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1800000000000002</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1654,9 +1660,9 @@
       <c r="D9" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1672,9 +1678,9 @@
       <c r="D10" s="1">
         <v>2.14</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1690,9 +1696,9 @@
       <c r="D11" s="1">
         <v>1.98</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1708,9 +1714,9 @@
       <c r="D12" s="1">
         <v>1.95</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.13</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1726,9 +1732,9 @@
       <c r="D13" s="1">
         <v>2.89</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1744,9 +1750,9 @@
       <c r="D14" s="1">
         <v>2.89</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1762,9 +1768,9 @@
       <c r="D15" s="1">
         <v>0.84</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1780,9 +1786,9 @@
       <c r="D16" s="1">
         <v>1.85</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1798,9 +1804,9 @@
       <c r="D17" s="1">
         <v>3.22</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.38</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1816,9 +1822,9 @@
       <c r="D18" s="1">
         <v>3.01</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1834,9 +1840,9 @@
       <c r="D19" s="1">
         <v>1.96</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1852,9 +1858,9 @@
       <c r="D20" s="1">
         <v>2.08</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1870,9 +1876,9 @@
       <c r="D21" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.21</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1888,9 +1894,9 @@
       <c r="D22" s="1">
         <v>4.01</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.82</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1906,9 +1912,9 @@
       <c r="D23" s="1">
         <v>1.65</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <f ca="1">ROUND(0.5*(RAND()-0.5)+D23, 2)</f>
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1918,13 +1924,13 @@
       <c r="B24" s="1">
         <v>0</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>71</v>
       </c>
       <c r="D24" s="1">
         <v>1.93</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <f t="shared" ref="J24:J48" ca="1" si="1">ROUND(0.5*(RAND()-0.5)+D24, 2)</f>
         <v>2.13</v>
       </c>
@@ -1936,15 +1942,15 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>72</v>
       </c>
       <c r="D25" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.88</v>
+      <c r="J25" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1954,15 +1960,15 @@
       <c r="B26" s="1">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>72</v>
       </c>
       <c r="D26" s="1">
         <v>1.96</v>
       </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.77</v>
+      <c r="J26" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1972,15 +1978,15 @@
       <c r="B27" s="1">
         <v>0</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>72</v>
       </c>
       <c r="D27" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+      <c r="J27" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1990,15 +1996,15 @@
       <c r="B28" s="1">
         <v>0</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>73</v>
       </c>
       <c r="D28" s="1">
         <v>1.91</v>
       </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.71</v>
+      <c r="J28" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.89</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2008,15 +2014,15 @@
       <c r="B29" s="1">
         <v>0</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>73</v>
       </c>
       <c r="D29" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.82</v>
+      <c r="J29" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.88</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2026,15 +2032,15 @@
       <c r="B30" s="1">
         <v>0</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>74</v>
       </c>
       <c r="D30" s="1">
         <v>1.94</v>
       </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.72</v>
+      <c r="J30" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2044,15 +2050,15 @@
       <c r="B31" s="1">
         <v>0</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>80</v>
       </c>
       <c r="D31" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.82</v>
+      <c r="J31" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.15</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2062,15 +2068,15 @@
       <c r="B32" s="1">
         <v>0</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>80</v>
       </c>
       <c r="D32" s="1">
         <v>1.72</v>
       </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.56</v>
+      <c r="J32" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.52</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2080,15 +2086,15 @@
       <c r="B33" s="1">
         <v>0</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>81</v>
       </c>
       <c r="D33" s="1">
         <v>1.76</v>
       </c>
-      <c r="J33">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.91</v>
+      <c r="J33" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.65</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2098,15 +2104,15 @@
       <c r="B34" s="1">
         <v>0</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>82</v>
       </c>
       <c r="D34" s="1">
         <v>1.84</v>
       </c>
-      <c r="J34">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8</v>
+      <c r="J34" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2116,15 +2122,15 @@
       <c r="B35" s="1">
         <v>0</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>82</v>
       </c>
       <c r="D35" s="1">
         <v>1.78</v>
       </c>
-      <c r="J35">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.59</v>
+      <c r="J35" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.99</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2134,15 +2140,15 @@
       <c r="B36" s="1">
         <v>0</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>82</v>
       </c>
       <c r="D36" s="1">
         <v>2.1</v>
       </c>
-      <c r="J36">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.94</v>
+      <c r="J36" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2152,15 +2158,15 @@
       <c r="B37" s="1">
         <v>0</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>83</v>
       </c>
       <c r="D37" s="1">
         <v>1.73</v>
       </c>
-      <c r="J37">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.89</v>
+      <c r="J37" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.91</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2170,15 +2176,15 @@
       <c r="B38" s="1">
         <v>0</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>83</v>
       </c>
       <c r="D38" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J38">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.78</v>
+      <c r="J38" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2188,15 +2194,15 @@
       <c r="B39" s="1">
         <v>0</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>84</v>
       </c>
       <c r="D39" s="1">
         <v>1.67</v>
       </c>
-      <c r="J39">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.51</v>
+      <c r="J39" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.57</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2206,15 +2212,15 @@
       <c r="B40" s="1">
         <v>0</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>90</v>
       </c>
       <c r="D40" s="1">
         <v>1.64</v>
       </c>
-      <c r="J40">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+      <c r="J40" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.45</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2224,15 +2230,15 @@
       <c r="B41" s="1">
         <v>0</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>90</v>
       </c>
       <c r="D41" s="1">
         <v>1.89</v>
       </c>
-      <c r="J41">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.65</v>
+      <c r="J41" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.71</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2242,15 +2248,15 @@
       <c r="B42" s="1">
         <v>0</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>91</v>
       </c>
       <c r="D42" s="1">
         <v>1.89</v>
       </c>
-      <c r="J42">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.09</v>
+      <c r="J42" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.65</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2260,15 +2266,15 @@
       <c r="B43" s="1">
         <v>0</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>92</v>
       </c>
       <c r="D43" s="1">
         <v>1.62</v>
       </c>
-      <c r="J43">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.61</v>
+      <c r="J43" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.38</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2278,15 +2284,15 @@
       <c r="B44" s="1">
         <v>0</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>92</v>
       </c>
       <c r="D44" s="1">
         <v>1.82</v>
       </c>
-      <c r="J44">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.78</v>
+      <c r="J44" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.72</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2296,15 +2302,15 @@
       <c r="B45" s="1">
         <v>0</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>92</v>
       </c>
       <c r="D45" s="1">
         <v>1.71</v>
       </c>
-      <c r="J45">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.64</v>
+      <c r="J45" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.59</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2314,15 +2320,15 @@
       <c r="B46" s="1">
         <v>0</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>93</v>
       </c>
       <c r="D46" s="1">
         <v>1.94</v>
       </c>
-      <c r="J46">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0499999999999998</v>
+      <c r="J46" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.02</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2332,15 +2338,15 @@
       <c r="B47" s="1">
         <v>0</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>93</v>
       </c>
       <c r="D47" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J47">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.84</v>
+      <c r="J47" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2350,15 +2356,15 @@
       <c r="B48" s="1">
         <v>0</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>94</v>
       </c>
       <c r="D48" s="1">
         <v>1.81</v>
       </c>
-      <c r="J48">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.04</v>
+      <c r="J48" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.67</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2368,15 +2374,15 @@
       <c r="B49" s="1">
         <v>1</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>70</v>
       </c>
       <c r="D49" s="1">
         <v>1.91</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <f t="shared" ref="J49:J75" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+D49, 2)</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2386,15 +2392,15 @@
       <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>70</v>
       </c>
       <c r="D50" s="1">
         <v>1.65</v>
       </c>
-      <c r="J50">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.67</v>
+      <c r="J50" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.71</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2404,15 +2410,15 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>71</v>
       </c>
       <c r="D51" s="1">
         <v>1.93</v>
       </c>
-      <c r="J51">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.88</v>
+      <c r="J51" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.93</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2422,15 +2428,15 @@
       <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>72</v>
       </c>
       <c r="D52" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J52">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.82</v>
+      <c r="J52" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.16</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2440,15 +2446,15 @@
       <c r="B53" s="1">
         <v>1</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>72</v>
       </c>
       <c r="D53" s="1">
         <v>1.96</v>
       </c>
-      <c r="J53">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.76</v>
+      <c r="J53" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2458,15 +2464,15 @@
       <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>72</v>
       </c>
       <c r="D54" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J54">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.14</v>
+      <c r="J54" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2476,15 +2482,15 @@
       <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>73</v>
       </c>
       <c r="D55" s="1">
         <v>1.91</v>
       </c>
-      <c r="J55">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0099999999999998</v>
+      <c r="J55" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2494,15 +2500,15 @@
       <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>73</v>
       </c>
       <c r="D56" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J56">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.86</v>
+      <c r="J56" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.06</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2512,15 +2518,15 @@
       <c r="B57" s="1">
         <v>1</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>74</v>
       </c>
       <c r="D57" s="1">
         <v>1.94</v>
       </c>
-      <c r="J57">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0099999999999998</v>
+      <c r="J57" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.13</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2530,15 +2536,15 @@
       <c r="B58" s="1">
         <v>1</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>80</v>
       </c>
       <c r="D58" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J58">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.97</v>
+      <c r="J58" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.08</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2548,15 +2554,15 @@
       <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>80</v>
       </c>
       <c r="D59" s="1">
         <v>1.72</v>
       </c>
-      <c r="J59">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.63</v>
+      <c r="J59" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.59</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2566,15 +2572,15 @@
       <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="1">
         <v>81</v>
       </c>
       <c r="D60" s="1">
         <v>1.76</v>
       </c>
-      <c r="J60">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.96</v>
+      <c r="J60" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.77</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2584,15 +2590,15 @@
       <c r="B61" s="1">
         <v>1</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="1">
         <v>82</v>
       </c>
       <c r="D61" s="1">
         <v>1.84</v>
       </c>
-      <c r="J61">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
+      <c r="J61" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.81</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2602,15 +2608,15 @@
       <c r="B62" s="1">
         <v>1</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="1">
         <v>82</v>
       </c>
       <c r="D62" s="1">
         <v>1.78</v>
       </c>
-      <c r="J62">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+      <c r="J62" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.78</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2620,15 +2626,15 @@
       <c r="B63" s="1">
         <v>1</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="1">
         <v>82</v>
       </c>
       <c r="D63" s="1">
         <v>2.1</v>
       </c>
-      <c r="J63">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.11</v>
+      <c r="J63" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2638,15 +2644,15 @@
       <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="1">
         <v>83</v>
       </c>
       <c r="D64" s="1">
         <v>1.73</v>
       </c>
-      <c r="J64">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.58</v>
+      <c r="J64" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.79</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -2656,15 +2662,15 @@
       <c r="B65" s="1">
         <v>1</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <v>83</v>
       </c>
       <c r="D65" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J65">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.21</v>
+      <c r="J65" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.97</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -2674,15 +2680,15 @@
       <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>84</v>
       </c>
       <c r="D66" s="1">
         <v>1.67</v>
       </c>
-      <c r="J66">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.82</v>
+      <c r="J66" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.81</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -2692,15 +2698,15 @@
       <c r="B67" s="1">
         <v>1</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <v>90</v>
       </c>
       <c r="D67" s="1">
         <v>1.64</v>
       </c>
-      <c r="J67">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.58</v>
+      <c r="J67" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -2710,15 +2716,15 @@
       <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>90</v>
       </c>
       <c r="D68" s="1">
         <v>1.89</v>
       </c>
-      <c r="J68">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.96</v>
+      <c r="J68" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.12</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -2728,15 +2734,15 @@
       <c r="B69" s="1">
         <v>1</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>1.89</v>
       </c>
-      <c r="J69">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.95</v>
+      <c r="J69" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -2746,15 +2752,15 @@
       <c r="B70" s="1">
         <v>1</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <v>92</v>
       </c>
       <c r="D70" s="1">
         <v>1.62</v>
       </c>
-      <c r="J70">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.52</v>
+      <c r="J70" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.46</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -2764,15 +2770,15 @@
       <c r="B71" s="1">
         <v>1</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="1">
         <v>92</v>
       </c>
       <c r="D71" s="1">
         <v>1.82</v>
       </c>
-      <c r="J71">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.71</v>
+      <c r="J71" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.96</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -2782,15 +2788,15 @@
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="1">
         <v>92</v>
       </c>
       <c r="D72" s="1">
         <v>1.71</v>
       </c>
-      <c r="J72">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.52</v>
+      <c r="J72" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.71</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -2800,15 +2806,15 @@
       <c r="B73" s="1">
         <v>1</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <v>93</v>
       </c>
       <c r="D73" s="1">
         <v>1.94</v>
       </c>
-      <c r="J73">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.77</v>
+      <c r="J73" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -2818,15 +2824,15 @@
       <c r="B74" s="1">
         <v>1</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <v>93</v>
       </c>
       <c r="D74" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J74">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.89</v>
+      <c r="J74" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.96</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -2836,15 +2842,15 @@
       <c r="B75" s="1">
         <v>1</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="1">
         <v>94</v>
       </c>
       <c r="D75" s="1">
         <v>1.81</v>
       </c>
-      <c r="J75">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.06</v>
+      <c r="J75" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>
@@ -2865,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2875,685 +2881,682 @@
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>70</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>70</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>72</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>73</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>73</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>74</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:D37 A5:A10 A20:A37 B36 B27 B18 C11:C12 C17:C18 C21 C26:C27 C29:C30 C35:C36" numberStoredAsText="1"/>
+    <ignoredError sqref="A5:A10 A20:A37 B36 B27 B18 C11:C12 C17:C18 C21 C26:C27 C29:C30 C35:C36 D2:D37" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/inst/extdata/toyFiles/FROC/frocSpC.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocSpC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E0B7E7-20ED-8641-90B5-B1C374B4EBB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD8185-9A91-9A47-8985-97254122BB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18740" yWindow="1140" windowWidth="10000" windowHeight="10160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="6320" windowWidth="10740" windowHeight="21520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -177,12 +177,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,12 +251,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -641,7 +650,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,178 +677,178 @@
       </c>
       <c r="M1" s="2">
         <f ca="1">RAND()-0.5</f>
-        <v>0.34076413284010987</v>
+        <v>-7.3089344517642041E-2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
         <v>70</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
         <v>5.28</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J9" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.16</v>
+        <v>5.49</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" ref="M2:M34" ca="1" si="1">RAND()-0.5</f>
-        <v>0.42179871719768514</v>
+        <v>0.27270082586438837</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>4.6500000000000004</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.41</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35867132822341119</v>
+        <v>0.294673274357098</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>71</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>3.01</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38324525897376049</v>
+        <v>0.29433791544534915</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
         <v>72</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>5.98</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.79</v>
+        <v>6.13</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46229011308619639</v>
+        <v>-0.13959605387154528</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>73</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>5</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8499999999999996</v>
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
         <v>73</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>5.25</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14079021838526462</v>
+        <v>-0.15032120114240544</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
         <v>74</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>4.26</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.46</v>
+        <v>4.08</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.098588686339641E-2</v>
+        <v>7.1947052306058357E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -860,11 +869,11 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9400000000000004</v>
+        <v>5.19</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36532181529663688</v>
+        <v>-0.28734303301460162</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -885,11 +894,11 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" ref="J10:J33" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E10, 2)</f>
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23618667541028038</v>
+        <v>-4.4608483756636064E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -910,11 +919,11 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.68</v>
+        <v>5.12</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3101699094944128E-2</v>
+        <v>0.12372823076514261</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -935,11 +944,11 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23679070443123695</v>
+        <v>0.30954358600230647</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -960,11 +969,11 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.68</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39985163397889933</v>
+        <v>0.22604034168704401</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -985,11 +994,11 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.95</v>
+        <v>5.17</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47605844750439463</v>
+        <v>7.0978936141786964E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1010,11 +1019,11 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.19</v>
+        <v>5.27</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48454632962065891</v>
+        <v>3.5275930760949481E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1035,11 +1044,11 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8899999999999997</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43484356692153536</v>
+        <v>-0.12904613154765476</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1060,11 +1069,11 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.04</v>
+        <v>3.83</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45976670913363249</v>
+        <v>0.39223292324383363</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1085,11 +1094,11 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.15</v>
+        <v>4.99</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28516799779908386</v>
+        <v>0.14485832853466818</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1110,11 +1119,11 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7699999999999996</v>
+        <v>5.16</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.070259353868912E-2</v>
+        <v>0.4293870053778891</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1135,11 +1144,11 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.34</v>
+        <v>5.13</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24011131768318494</v>
+        <v>-0.44960669043600932</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1160,11 +1169,11 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.13</v>
+        <v>5.27</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.165643249336069</v>
+        <v>-0.23211714722593835</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1185,11 +1194,11 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3169404945524383E-2</v>
+        <v>0.19111031874077777</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1210,11 +1219,11 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.57</v>
+        <v>4.71</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31838416157826366</v>
+        <v>0.34180110341771452</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1235,11 +1244,11 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.31</v>
+        <v>5.39</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22250320131717849</v>
+        <v>0.15143057901065249</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1260,11 +1269,11 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.53</v>
+        <v>4.87</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7185710887119656E-2</v>
+        <v>-0.35871768365167489</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1285,11 +1294,11 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.91</v>
+        <v>4.62</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22765724785624941</v>
+        <v>7.2602324648952665E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1310,11 +1319,11 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6826097144701864E-2</v>
+        <v>0.26765704016668423</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1335,11 +1344,11 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.22</v>
+        <v>5.36</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43357325630930021</v>
+        <v>0.29079770463497712</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1360,11 +1369,11 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.48</v>
+        <v>5.22</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21728873371707402</v>
+        <v>0.3503424471997455</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1385,11 +1394,11 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.929748503867637E-2</v>
+        <v>0.19463913556153467</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1410,11 +1419,11 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43843800096394359</v>
+        <v>0.39080394732162904</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1435,11 +1444,11 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14452458253015332</v>
+        <v>-0.14460528172836573</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1460,23 +1469,23 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8499999999999996</v>
+        <v>4.91</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24295717114820747</v>
+        <v>-0.23831027426294216</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.41855868626844261</v>
+        <v>-0.22901453524094051</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M36" s="2">
         <f ca="1">AVERAGE(M1:M34)</f>
-        <v>3.9442301652386623E-2</v>
+        <v>7.1992749809617382E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1507,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1522,75 +1531,75 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>1.02</v>
       </c>
       <c r="J2" s="2">
         <f ca="1">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>1.1499999999999999</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <v>2.17</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J22" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D3, 2)</f>
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>2.2200000000000002</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2799999999999998</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>1.9</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1608,7 +1617,7 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.14</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1626,7 +1635,7 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1644,7 +1653,7 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1662,7 +1671,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1680,7 +1689,7 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1698,7 +1707,7 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.82</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1716,7 +1725,7 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1734,7 +1743,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1752,7 +1761,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1770,7 +1779,7 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1788,7 +1797,7 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1806,7 +1815,7 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1842,7 +1851,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1860,7 +1869,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.11</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1878,7 +1887,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1896,7 +1905,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.18</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1914,133 +1923,133 @@
       </c>
       <c r="J23" s="2">
         <f ca="1">ROUND(0.5*(RAND()-0.5)+D23, 2)</f>
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
         <v>71</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>1.93</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" ref="J24:J48" ca="1" si="1">ROUND(0.5*(RAND()-0.5)+D24, 2)</f>
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
         <v>72</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>2.0699999999999998</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>73</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.96</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>72</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.91</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>73</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>74</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.75</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2058,7 +2067,7 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2076,7 +2085,7 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2094,7 +2103,7 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2112,7 +2121,7 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2130,7 +2139,7 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2148,7 +2157,7 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2166,7 +2175,7 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2184,7 +2193,7 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0299999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2202,7 +2211,7 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2220,7 +2229,7 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2238,7 +2247,7 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2256,7 +2265,7 @@
       </c>
       <c r="J42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2274,7 +2283,7 @@
       </c>
       <c r="J43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2292,7 +2301,7 @@
       </c>
       <c r="J44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2310,7 +2319,7 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2328,7 +2337,7 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2346,7 +2355,7 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2364,7 +2373,7 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2382,7 +2391,7 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" ref="J49:J75" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+D49, 2)</f>
-        <v>1.7</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2400,7 +2409,7 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2418,7 +2427,7 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2436,7 +2445,7 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2472,7 +2481,7 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2490,7 +2499,7 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2508,7 +2517,7 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2526,7 +2535,7 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2544,7 +2553,7 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.08</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2562,7 +2571,7 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2580,7 +2589,7 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2598,7 +2607,7 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2616,7 +2625,7 @@
       </c>
       <c r="J62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2634,7 +2643,7 @@
       </c>
       <c r="J63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2799999999999998</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2652,7 +2661,7 @@
       </c>
       <c r="J64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -2670,7 +2679,7 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -2688,7 +2697,7 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -2706,7 +2715,7 @@
       </c>
       <c r="J67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -2724,7 +2733,7 @@
       </c>
       <c r="J68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -2742,7 +2751,7 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -2760,7 +2769,7 @@
       </c>
       <c r="J70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -2778,7 +2787,7 @@
       </c>
       <c r="J71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -2796,7 +2805,7 @@
       </c>
       <c r="J72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -2814,7 +2823,7 @@
       </c>
       <c r="J73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1800000000000002</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -2832,7 +2841,7 @@
       </c>
       <c r="J74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.96</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -2850,7 +2859,7 @@
       </c>
       <c r="J75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>
@@ -2871,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2905,19 +2914,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2925,19 +2934,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2945,19 +2954,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2"/>
@@ -3067,163 +3076,163 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>70</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>70</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>71</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>72</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>72</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>72</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>73</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>73</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>74</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="2"/>

--- a/inst/extdata/toyFiles/FROC/frocSpC.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocSpC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD8185-9A91-9A47-8985-97254122BB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFB4DF-F9E7-9543-A2C0-4DF711A28225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="6320" windowWidth="10740" windowHeight="21520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="6320" windowWidth="10000" windowHeight="21520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -323,6 +323,327 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA030733-2993-EB4E-8F56-20C9220DC9F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="342900"/>
+          <a:ext cx="8902700" cy="9664700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; t(t[1,1,,1:2])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,1] [,2] [,3] [,4] [,5] [,6] [,7] [,8] [,9] [,10] [,11] [,12] [,13] [,14] [,15] [,16] [,17] [,18] [,19] [,20]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]    1    1    1   NA   NA   NA   NA   NA   NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]   NA   NA   NA   NA   NA   NA   NA   NA   NA     1     1     1     1     1    NA    NA    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,21] [,22] [,23] [,24]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; t(t[1,2,,1:2])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,1] [,2] [,3] [,4] [,5] [,6] [,7] [,8] [,9] [,10] [,11] [,12] [,13] [,14] [,15] [,16] [,17] [,18] [,19] [,20]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]   NA   NA   NA    1    1    1   NA   NA   NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]   NA   NA   NA   NA   NA   NA   NA   NA   NA    NA    NA    NA    NA    NA     1     1     1     1     1    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,21] [,22] [,23] [,24]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; t(t[1,3,,1:2])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,1] [,2] [,3] [,4] [,5] [,6] [,7] [,8] [,9] [,10] [,11] [,12] [,13] [,14] [,15] [,16] [,17] [,18] [,19] [,20]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]   NA   NA   NA   NA   NA   NA    1    1    1    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]   NA   NA   NA   NA   NA   NA   NA   NA   NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA     1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,21] [,22] [,23] [,24]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]     1     1     1     1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; t(t[2,2,,1:2])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,1] [,2] [,3] [,4] [,5] [,6] [,7] [,8] [,9] [,10] [,11] [,12] [,13] [,14] [,15] [,16] [,17] [,18] [,19] [,20]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]   NA   NA   NA    1    1    1   NA   NA   NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]   NA   NA   NA   NA   NA   NA   NA   NA   NA    NA    NA    NA    NA    NA     1     1     1     1     1    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,21] [,22] [,23] [,24]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; t(t[2,1,,1:2])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,1] [,2] [,3] [,4] [,5] [,6] [,7] [,8] [,9] [,10] [,11] [,12] [,13] [,14] [,15] [,16] [,17] [,18] [,19] [,20] [,21] [,22]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]    1    1    1   NA   NA   NA   NA   NA   NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]   NA   NA   NA   NA   NA   NA   NA   NA   NA     1     1     1     1     1    NA    NA    NA    NA    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,23] [,24]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt; t(t[2,3,,1:2])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,1] [,2] [,3] [,4] [,5] [,6] [,7] [,8] [,9] [,10] [,11] [,12] [,13] [,14] [,15] [,16] [,17] [,18] [,19] [,20] [,21] [,22]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]   NA   NA   NA   NA   NA   NA    1    1    1    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]   NA   NA   NA   NA   NA   NA   NA   NA   NA    NA    NA    NA    NA    NA    NA    NA    NA    NA    NA     1     1     1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>     [,23] [,24]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[1,]    NA    NA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[2,]     1     1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,7 +998,7 @@
       </c>
       <c r="M1" s="2">
         <f ca="1">RAND()-0.5</f>
-        <v>-7.3089344517642041E-2</v>
+        <v>5.6969322587093751E-3</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -698,11 +1019,11 @@
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J9" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.49</v>
+        <v>5.09</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" ref="M2:M34" ca="1" si="1">RAND()-0.5</f>
-        <v>0.27270082586438837</v>
+        <v>0.26523037598196486</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -723,11 +1044,11 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6399999999999997</v>
+        <v>4.67</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.294673274357098</v>
+        <v>-0.16491280859404611</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -748,11 +1069,11 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.83</v>
+        <v>3.02</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29433791544534915</v>
+        <v>-5.9951643586271031E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -773,11 +1094,11 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13959605387154528</v>
+        <v>0.16332152139522094</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -798,7 +1119,7 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8899999999999997</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -819,11 +1140,11 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15032120114240544</v>
+        <v>-0.44997150527646002</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -844,11 +1165,11 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.08</v>
+        <v>4.49</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1947052306058357E-3</v>
+        <v>-0.29771106295970229</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -869,11 +1190,11 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.19</v>
+        <v>5.35</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28734303301460162</v>
+        <v>0.44627107589377657</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -894,11 +1215,11 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" ref="J10:J33" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E10, 2)</f>
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4608483756636064E-2</v>
+        <v>0.29695599352017465</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -919,11 +1240,11 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.12</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12372823076514261</v>
+        <v>0.43496368205626523</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -944,11 +1265,11 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9400000000000004</v>
+        <v>4.97</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30954358600230647</v>
+        <v>0.18962601684707237</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -969,11 +1290,11 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5599999999999996</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22604034168704401</v>
+        <v>0.14148017700017124</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -994,11 +1315,11 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.17</v>
+        <v>4.83</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0978936141786964E-2</v>
+        <v>-0.19392501945494911</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1019,11 +1340,11 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.27</v>
+        <v>5.51</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5275930760949481E-2</v>
+        <v>-0.35272124256310344</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1044,11 +1365,11 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5199999999999996</v>
+        <v>4.53</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12904613154765476</v>
+        <v>-0.21587825815873907</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1069,11 +1390,11 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.83</v>
+        <v>4.07</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39223292324383363</v>
+        <v>0.27744616087759444</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1094,11 +1415,11 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.99</v>
+        <v>5.18</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14485832853466818</v>
+        <v>-0.37892684993070136</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1119,11 +1440,11 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.16</v>
+        <v>4.76</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4293870053778891</v>
+        <v>0.19307565639833946</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1144,11 +1465,11 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.13</v>
+        <v>5.5</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44960669043600932</v>
+        <v>0.21343604707849151</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1169,11 +1490,11 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.27</v>
+        <v>5.14</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23211714722593835</v>
+        <v>-9.229699581090911E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1194,11 +1515,11 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3</v>
+        <v>3.39</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19111031874077777</v>
+        <v>1.2687915429014263E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1219,11 +1540,11 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34180110341771452</v>
+        <v>-0.47748987196219672</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1244,11 +1565,11 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.39</v>
+        <v>4.97</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15143057901065249</v>
+        <v>0.40144794024765962</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1269,11 +1590,11 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.87</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35871768365167489</v>
+        <v>-0.2341089207795517</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1294,11 +1615,11 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.62</v>
+        <v>4.79</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2602324648952665E-2</v>
+        <v>-0.40883651148451861</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1319,11 +1640,11 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.27</v>
+        <v>2.99</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26765704016668423</v>
+        <v>-0.44703730196788927</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1344,11 +1665,11 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.36</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29079770463497712</v>
+        <v>-9.4577387654253275E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1369,11 +1690,11 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.22</v>
+        <v>5.28</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3503424471997455</v>
+        <v>-0.22999891938902672</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1394,11 +1715,11 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.87</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19463913556153467</v>
+        <v>-0.24938090994350359</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1419,11 +1740,11 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.01</v>
+        <v>5.08</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39080394732162904</v>
+        <v>0.39425700619563342</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1444,11 +1765,11 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.78</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14460528172836573</v>
+        <v>-0.38749849560310967</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1469,23 +1790,23 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.91</v>
+        <v>4.78</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23831027426294216</v>
+        <v>-0.32386942189966195</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22901453524094051</v>
+        <v>6.2281978023038365E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M36" s="2">
         <f ca="1">AVERAGE(M1:M34)</f>
-        <v>7.1992749809617382E-2</v>
+        <v>-4.4721060573534518E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1866,7 @@
       </c>
       <c r="J2" s="2">
         <f ca="1">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>1.01</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1563,7 +1884,7 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J22" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D3, 2)</f>
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1581,7 +1902,7 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1599,7 +1920,7 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.13</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1617,7 +1938,7 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3199999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1635,7 +1956,7 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.01</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1653,7 +1974,7 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.41</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1671,7 +1992,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.19</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1689,7 +2010,7 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.08</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1707,7 +2028,7 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1725,7 +2046,7 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1743,7 +2064,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.01</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1761,7 +2082,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1779,7 +2100,7 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1797,7 +2118,7 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1815,7 +2136,7 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.42</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1833,7 +2154,7 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1851,7 +2172,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1869,7 +2190,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1887,7 +2208,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1905,7 +2226,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.76</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1923,7 +2244,7 @@
       </c>
       <c r="J23" s="2">
         <f ca="1">ROUND(0.5*(RAND()-0.5)+D23, 2)</f>
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1941,7 +2262,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" ref="J24:J48" ca="1" si="1">ROUND(0.5*(RAND()-0.5)+D24, 2)</f>
-        <v>2.04</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1959,7 +2280,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1977,7 +2298,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1995,7 +2316,7 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2400000000000002</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2013,7 +2334,7 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2031,7 +2352,7 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.91</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2049,7 +2370,7 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0499999999999998</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2067,7 +2388,7 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2085,7 +2406,7 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2103,7 +2424,7 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2121,7 +2442,7 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.94</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2139,7 +2460,7 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2157,7 +2478,7 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.89</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2175,7 +2496,7 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2193,7 +2514,7 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2599999999999998</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2211,7 +2532,7 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2229,7 +2550,7 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2247,7 +2568,7 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2265,7 +2586,7 @@
       </c>
       <c r="J42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2283,7 +2604,7 @@
       </c>
       <c r="J43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.49</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2301,7 +2622,7 @@
       </c>
       <c r="J44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2319,7 +2640,7 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.49</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2337,7 +2658,7 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2355,7 +2676,7 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2373,7 +2694,7 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2391,7 +2712,7 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" ref="J49:J75" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+D49, 2)</f>
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2409,7 +2730,7 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2427,7 +2748,7 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2445,7 +2766,7 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.93</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2463,7 +2784,7 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0499999999999998</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2481,7 +2802,7 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2499,7 +2820,7 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2517,7 +2838,7 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2535,7 +2856,7 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2553,7 +2874,7 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2599999999999998</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2571,7 +2892,7 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2589,7 +2910,7 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2607,7 +2928,7 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2625,7 +2946,7 @@
       </c>
       <c r="J62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2643,7 +2964,7 @@
       </c>
       <c r="J63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.13</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2661,7 +2982,7 @@
       </c>
       <c r="J64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -2679,7 +3000,7 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -2697,7 +3018,7 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -2715,7 +3036,7 @@
       </c>
       <c r="J67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -2733,7 +3054,7 @@
       </c>
       <c r="J68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -2751,7 +3072,7 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0299999999999998</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -2769,7 +3090,7 @@
       </c>
       <c r="J70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -2787,7 +3108,7 @@
       </c>
       <c r="J71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -2805,7 +3126,7 @@
       </c>
       <c r="J72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -2823,7 +3144,7 @@
       </c>
       <c r="J73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -2841,7 +3162,7 @@
       </c>
       <c r="J74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0299999999999998</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -2859,7 +3180,7 @@
       </c>
       <c r="J75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +3202,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3567,6 +3888,7 @@
   <ignoredErrors>
     <ignoredError sqref="A5:A10 A20:A37 B36 B27 B18 C11:C12 C17:C18 C21 C26:C27 C29:C30 C35:C36 D2:D37" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
